--- a/Логистика/6. Базисные условия поставки.xlsx
+++ b/Логистика/6. Базисные условия поставки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dima\Documents\_Учёба\Логистика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D3ABC8-AD8D-44F6-A039-0DCDF3BD8BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C724E550-5B8E-4B4A-9B09-6A6F50AA050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5CD53E7-63CC-40AB-B1FB-C5B3AA0DCB7F}"/>
+    <workbookView xWindow="11880" yWindow="0" windowWidth="16920" windowHeight="15600" xr2:uid="{D5CD53E7-63CC-40AB-B1FB-C5B3AA0DCB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t>Базисные условия поставки</t>
   </si>
@@ -304,14 +304,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,18 +332,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C68DAE-BFEE-429C-8D5B-B6BEBB26D047}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,82 +673,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -798,8 +798,8 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -813,66 +813,102 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>17</v>
+      <c r="N5" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>16</v>
@@ -880,42 +916,56 @@
       <c r="M7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
@@ -923,57 +973,79 @@
         <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
@@ -981,33 +1053,39 @@
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -1023,23 +1101,31 @@
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1047,14 +1133,20 @@
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1064,14 +1156,16 @@
       <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1081,25 +1175,37 @@
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1107,23 +1213,41 @@
         <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="N5:N15"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="F2:F3"/>
@@ -1133,14 +1257,6 @@
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="N5:N15"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
